--- a/Feature Analysis/RF_analysis.xlsx
+++ b/Feature Analysis/RF_analysis.xlsx
@@ -8,19 +8,62 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barberademol/Desktop/MLanalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0228A70C-F85F-4D4E-9A40-313B176B2D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{018ABBC6-20F2-3D42-ACE0-4F386A856DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2060" yWindow="1960" windowWidth="26360" windowHeight="15540"/>
+    <workbookView xWindow="14240" yWindow="460" windowWidth="14560" windowHeight="16220" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="RF_analysis" sheetId="1" r:id="rId1"/>
+    <sheet name="imported" sheetId="2" r:id="rId2"/>
+    <sheet name="abs" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">abs!$A$1:$D$1</definedName>
+    <definedName name="RF_analysis" localSheetId="2">abs!$A$1:$D$54</definedName>
+    <definedName name="RF_analysis" localSheetId="1">imported!$A$1:$D$54</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="RF_analysis" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/barberademol/Desktop/ML_12/RF_analysis.csv" decimal="," thousands="." comma="1">
+      <textFields count="4">
+        <textField type="text"/>
+        <textField type="text"/>
+        <textField type="text"/>
+        <textField type="text"/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="RF_analysis1" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/barberademol/Desktop/ML_12/RF_analysis.csv" decimal="," thousands="." comma="1">
+      <textFields count="4">
+        <textField type="text"/>
+        <textField type="text"/>
+        <textField type="text"/>
+        <textField type="text"/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="111">
   <si>
     <t>,Principal Component Vector Number,class1,class2</t>
   </si>
@@ -182,12 +225,186 @@
   </si>
   <si>
     <t>52,53,0.0058056006956649165,-0.005805600695664914</t>
+  </si>
+  <si>
+    <t>Principal Component Vector Number</t>
+  </si>
+  <si>
+    <t>class1</t>
+  </si>
+  <si>
+    <t>class2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="179" formatCode="0.00000000000000000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -665,8 +882,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -723,6 +942,14 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_analysis" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RF_analysis" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1024,7 +1251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1301,4 +1528,1660 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="A1:D54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4.0541065398807998E-3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-4.0541065398807998E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4.2323224522691502E-3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-4.2323224522691502E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.3641871246168301E-3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-2.3641871246168301E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.8481028331800999E-3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-1.8481028331800999E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="1">
+        <v>7.5495058430579496E-3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-7.5495058430579496E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2.77053464682229E-3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-2.77053464682229E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.8244770062730599E-3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-1.8244770062730599E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.74602340865576E-3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-1.74602340865576E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4.4218646697049401E-3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-4.4218646697049297E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.66415668991565E-3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-1.66415668991565E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.68066715154692E-3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>-1.68066715154692E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1.99912555287439E-3</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-1.99912555287439E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1.73122021316351E-3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>-1.73122021316351E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1.5756142279608799E-3</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-1.5756142279608799E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1.80121647276506E-3</v>
+      </c>
+      <c r="D16" s="1">
+        <v>-1.80121647276505E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1.9524040466124E-3</v>
+      </c>
+      <c r="D17" s="1">
+        <v>-1.9524040466124E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.8028160768315299E-3</v>
+      </c>
+      <c r="D18" s="1">
+        <v>-1.8028160768315299E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1.93316979851878E-3</v>
+      </c>
+      <c r="D19" s="1">
+        <v>-1.93316979851878E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2.6943041723326098E-3</v>
+      </c>
+      <c r="D20" s="1">
+        <v>-2.6943041723326098E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="1">
+        <v>4.7717647114896202E-3</v>
+      </c>
+      <c r="D21" s="1">
+        <v>-4.7717647114896202E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1.49598774389204E-3</v>
+      </c>
+      <c r="D22" s="1">
+        <v>-1.49598774389204E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1.4452751259944399E-3</v>
+      </c>
+      <c r="D23" s="1">
+        <v>-1.4452751259944399E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2.2511019073978601E-3</v>
+      </c>
+      <c r="D24" s="1">
+        <v>-2.2511019073978601E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2.0042635654226601E-3</v>
+      </c>
+      <c r="D25" s="1">
+        <v>-2.0042635654226601E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1.94700330444454E-3</v>
+      </c>
+      <c r="D26" s="1">
+        <v>-1.94700330444454E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1.5920239729999E-3</v>
+      </c>
+      <c r="D27" s="1">
+        <v>-1.5920239729999E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1.8465955569604601E-3</v>
+      </c>
+      <c r="D28" s="1">
+        <v>-1.8465955569604601E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1.7508906699854299E-3</v>
+      </c>
+      <c r="D29" s="1">
+        <v>-1.7508906699854299E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1.74539750506454E-3</v>
+      </c>
+      <c r="D30" s="1">
+        <v>-1.74539750506454E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1.8992634433422401E-3</v>
+      </c>
+      <c r="D31" s="1">
+        <v>-1.8992634433422401E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1.75341772718103E-3</v>
+      </c>
+      <c r="D32" s="1">
+        <v>-1.75341772718103E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1.5577994729130201E-3</v>
+      </c>
+      <c r="D33" s="1">
+        <v>-1.5577994729130201E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1.9007178739412899E-3</v>
+      </c>
+      <c r="D34" s="1">
+        <v>-1.9007178739412899E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1.41214320108312E-3</v>
+      </c>
+      <c r="D35" s="1">
+        <v>-1.41214320108312E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2.7584237673693801E-3</v>
+      </c>
+      <c r="D36" s="1">
+        <v>-2.7584237673693901E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1.06806828888942E-2</v>
+      </c>
+      <c r="D37" s="1">
+        <v>-1.06806828888942E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="1">
+        <v>4.8165906449035498E-3</v>
+      </c>
+      <c r="D38" s="1">
+        <v>-4.8165906449035498E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="1">
+        <v>3.2707147061565001E-3</v>
+      </c>
+      <c r="D39" s="1">
+        <v>-3.2707147061565001E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" s="1">
+        <v>4.2107872156189798E-3</v>
+      </c>
+      <c r="D40" s="1">
+        <v>-4.2107872156189798E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="1">
+        <v>8.5171545556990101E-3</v>
+      </c>
+      <c r="D41" s="1">
+        <v>-8.5171545556990205E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="1">
+        <v>5.4387252220724396E-3</v>
+      </c>
+      <c r="D42" s="1">
+        <v>-5.4387252220724396E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2.30430518324032E-3</v>
+      </c>
+      <c r="D43" s="1">
+        <v>-2.30430518324032E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1.3848731243639801E-2</v>
+      </c>
+      <c r="D44" s="1">
+        <v>-1.3848731243639801E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" s="1">
+        <v>2.4329538814053999E-3</v>
+      </c>
+      <c r="D45" s="1">
+        <v>-2.4329538814053999E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1.9923382199744499E-3</v>
+      </c>
+      <c r="D46" s="1">
+        <v>-1.9923382199744499E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" s="1">
+        <v>2.25042224457868E-3</v>
+      </c>
+      <c r="D47" s="1">
+        <v>-2.25042224457868E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" s="1">
+        <v>2.3946080034100798E-3</v>
+      </c>
+      <c r="D48" s="1">
+        <v>-2.3946080034100798E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="1">
+        <v>3.2384011963965901E-3</v>
+      </c>
+      <c r="D49" s="1">
+        <v>-3.2384011963965901E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="1">
+        <v>8.0311969516176605E-3</v>
+      </c>
+      <c r="D50" s="1">
+        <v>-8.0311969516176605E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="1">
+        <v>6.4365540694057803E-3</v>
+      </c>
+      <c r="D51" s="1">
+        <v>-6.4365540694057899E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="1">
+        <v>2.46573481391322E-3</v>
+      </c>
+      <c r="D52" s="1">
+        <v>-2.46573481391322E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="1">
+        <v>2.9446322319639198E-3</v>
+      </c>
+      <c r="D53" s="1">
+        <v>-2.9446322319639198E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="1">
+        <v>5.8056006956649104E-3</v>
+      </c>
+      <c r="D54" s="1">
+        <v>-5.8056006956649104E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="4" width="27.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2">
+        <f>ABS(imported!C44)</f>
+        <v>1.3848731243639801E-2</v>
+      </c>
+      <c r="D2" s="2">
+        <f>ABS(imported!D44)</f>
+        <v>1.3848731243639801E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="2">
+        <f>ABS(imported!C37)</f>
+        <v>1.06806828888942E-2</v>
+      </c>
+      <c r="D3" s="2">
+        <f>ABS(imported!D37)</f>
+        <v>1.06806828888942E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="2">
+        <f>ABS(imported!C41)</f>
+        <v>8.5171545556990101E-3</v>
+      </c>
+      <c r="D4" s="2">
+        <f>ABS(imported!D41)</f>
+        <v>8.5171545556990205E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="2">
+        <f>ABS(imported!C50)</f>
+        <v>8.0311969516176605E-3</v>
+      </c>
+      <c r="D5" s="2">
+        <f>ABS(imported!D50)</f>
+        <v>8.0311969516176605E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="2">
+        <f>ABS(imported!C6)</f>
+        <v>7.5495058430579496E-3</v>
+      </c>
+      <c r="D6" s="2">
+        <f>ABS(imported!D6)</f>
+        <v>7.5495058430579496E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="2">
+        <f>ABS(imported!C51)</f>
+        <v>6.4365540694057803E-3</v>
+      </c>
+      <c r="D7" s="2">
+        <f>ABS(imported!D51)</f>
+        <v>6.4365540694057899E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="2">
+        <f>ABS(imported!C54)</f>
+        <v>5.8056006956649104E-3</v>
+      </c>
+      <c r="D8" s="2">
+        <f>ABS(imported!D54)</f>
+        <v>5.8056006956649104E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="2">
+        <f>ABS(imported!C42)</f>
+        <v>5.4387252220724396E-3</v>
+      </c>
+      <c r="D9" s="2">
+        <f>ABS(imported!D42)</f>
+        <v>5.4387252220724396E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="2">
+        <f>ABS(imported!C38)</f>
+        <v>4.8165906449035498E-3</v>
+      </c>
+      <c r="D10" s="2">
+        <f>ABS(imported!D38)</f>
+        <v>4.8165906449035498E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="2">
+        <f>ABS(imported!C21)</f>
+        <v>4.7717647114896202E-3</v>
+      </c>
+      <c r="D11" s="2">
+        <f>ABS(imported!D21)</f>
+        <v>4.7717647114896202E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="2">
+        <f>ABS(imported!C10)</f>
+        <v>4.4218646697049401E-3</v>
+      </c>
+      <c r="D12" s="2">
+        <f>ABS(imported!D10)</f>
+        <v>4.4218646697049297E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="2">
+        <f>ABS(imported!C3)</f>
+        <v>4.2323224522691502E-3</v>
+      </c>
+      <c r="D13" s="2">
+        <f>ABS(imported!D3)</f>
+        <v>4.2323224522691502E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="2">
+        <f>ABS(imported!C40)</f>
+        <v>4.2107872156189798E-3</v>
+      </c>
+      <c r="D14" s="2">
+        <f>ABS(imported!D40)</f>
+        <v>4.2107872156189798E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="2">
+        <f>ABS(imported!C2)</f>
+        <v>4.0541065398807998E-3</v>
+      </c>
+      <c r="D15" s="2">
+        <f>ABS(imported!D2)</f>
+        <v>4.0541065398807998E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="2">
+        <f>ABS(imported!C39)</f>
+        <v>3.2707147061565001E-3</v>
+      </c>
+      <c r="D16" s="2">
+        <f>ABS(imported!D39)</f>
+        <v>3.2707147061565001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="2">
+        <f>ABS(imported!C49)</f>
+        <v>3.2384011963965901E-3</v>
+      </c>
+      <c r="D17" s="2">
+        <f>ABS(imported!D49)</f>
+        <v>3.2384011963965901E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="2">
+        <f>ABS(imported!C53)</f>
+        <v>2.9446322319639198E-3</v>
+      </c>
+      <c r="D18" s="2">
+        <f>ABS(imported!D53)</f>
+        <v>2.9446322319639198E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="2">
+        <f>ABS(imported!C7)</f>
+        <v>2.77053464682229E-3</v>
+      </c>
+      <c r="D19" s="2">
+        <f>ABS(imported!D7)</f>
+        <v>2.77053464682229E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="2">
+        <f>ABS(imported!C36)</f>
+        <v>2.7584237673693801E-3</v>
+      </c>
+      <c r="D20" s="2">
+        <f>ABS(imported!D36)</f>
+        <v>2.7584237673693901E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="2">
+        <f>ABS(imported!C20)</f>
+        <v>2.6943041723326098E-3</v>
+      </c>
+      <c r="D21" s="2">
+        <f>ABS(imported!D20)</f>
+        <v>2.6943041723326098E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="2">
+        <f>ABS(imported!C52)</f>
+        <v>2.46573481391322E-3</v>
+      </c>
+      <c r="D22" s="2">
+        <f>ABS(imported!D52)</f>
+        <v>2.46573481391322E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="2">
+        <f>ABS(imported!C45)</f>
+        <v>2.4329538814053999E-3</v>
+      </c>
+      <c r="D23" s="2">
+        <f>ABS(imported!D45)</f>
+        <v>2.4329538814053999E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="2">
+        <f>ABS(imported!C48)</f>
+        <v>2.3946080034100798E-3</v>
+      </c>
+      <c r="D24" s="2">
+        <f>ABS(imported!D48)</f>
+        <v>2.3946080034100798E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="2">
+        <f>ABS(imported!C4)</f>
+        <v>2.3641871246168301E-3</v>
+      </c>
+      <c r="D25" s="2">
+        <f>ABS(imported!D4)</f>
+        <v>2.3641871246168301E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="2">
+        <f>ABS(imported!C43)</f>
+        <v>2.30430518324032E-3</v>
+      </c>
+      <c r="D26" s="2">
+        <f>ABS(imported!D43)</f>
+        <v>2.30430518324032E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="2">
+        <f>ABS(imported!C24)</f>
+        <v>2.2511019073978601E-3</v>
+      </c>
+      <c r="D27" s="2">
+        <f>ABS(imported!D24)</f>
+        <v>2.2511019073978601E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="2">
+        <f>ABS(imported!C47)</f>
+        <v>2.25042224457868E-3</v>
+      </c>
+      <c r="D28" s="2">
+        <f>ABS(imported!D47)</f>
+        <v>2.25042224457868E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="2">
+        <f>ABS(imported!C25)</f>
+        <v>2.0042635654226601E-3</v>
+      </c>
+      <c r="D29" s="2">
+        <f>ABS(imported!D25)</f>
+        <v>2.0042635654226601E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="2">
+        <f>ABS(imported!C13)</f>
+        <v>1.99912555287439E-3</v>
+      </c>
+      <c r="D30" s="2">
+        <f>ABS(imported!D13)</f>
+        <v>1.99912555287439E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="2">
+        <f>ABS(imported!C46)</f>
+        <v>1.9923382199744499E-3</v>
+      </c>
+      <c r="D31" s="2">
+        <f>ABS(imported!D46)</f>
+        <v>1.9923382199744499E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="2">
+        <f>ABS(imported!C17)</f>
+        <v>1.9524040466124E-3</v>
+      </c>
+      <c r="D32" s="2">
+        <f>ABS(imported!D17)</f>
+        <v>1.9524040466124E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="2">
+        <f>ABS(imported!C26)</f>
+        <v>1.94700330444454E-3</v>
+      </c>
+      <c r="D33" s="2">
+        <f>ABS(imported!D26)</f>
+        <v>1.94700330444454E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="2">
+        <f>ABS(imported!C19)</f>
+        <v>1.93316979851878E-3</v>
+      </c>
+      <c r="D34" s="2">
+        <f>ABS(imported!D19)</f>
+        <v>1.93316979851878E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="2">
+        <f>ABS(imported!C34)</f>
+        <v>1.9007178739412899E-3</v>
+      </c>
+      <c r="D35" s="2">
+        <f>ABS(imported!D34)</f>
+        <v>1.9007178739412899E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="2">
+        <f>ABS(imported!C31)</f>
+        <v>1.8992634433422401E-3</v>
+      </c>
+      <c r="D36" s="2">
+        <f>ABS(imported!D31)</f>
+        <v>1.8992634433422401E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="2">
+        <f>ABS(imported!C5)</f>
+        <v>1.8481028331800999E-3</v>
+      </c>
+      <c r="D37" s="2">
+        <f>ABS(imported!D5)</f>
+        <v>1.8481028331800999E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="2">
+        <f>ABS(imported!C28)</f>
+        <v>1.8465955569604601E-3</v>
+      </c>
+      <c r="D38" s="2">
+        <f>ABS(imported!D28)</f>
+        <v>1.8465955569604601E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" s="2">
+        <f>ABS(imported!C8)</f>
+        <v>1.8244770062730599E-3</v>
+      </c>
+      <c r="D39" s="2">
+        <f>ABS(imported!D8)</f>
+        <v>1.8244770062730599E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="2">
+        <f>ABS(imported!C18)</f>
+        <v>1.8028160768315299E-3</v>
+      </c>
+      <c r="D40" s="2">
+        <f>ABS(imported!D18)</f>
+        <v>1.8028160768315299E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="2">
+        <f>ABS(imported!C16)</f>
+        <v>1.80121647276506E-3</v>
+      </c>
+      <c r="D41" s="2">
+        <f>ABS(imported!D16)</f>
+        <v>1.80121647276505E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="2">
+        <f>ABS(imported!C32)</f>
+        <v>1.75341772718103E-3</v>
+      </c>
+      <c r="D42" s="2">
+        <f>ABS(imported!D32)</f>
+        <v>1.75341772718103E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="2">
+        <f>ABS(imported!C29)</f>
+        <v>1.7508906699854299E-3</v>
+      </c>
+      <c r="D43" s="2">
+        <f>ABS(imported!D29)</f>
+        <v>1.7508906699854299E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="2">
+        <f>ABS(imported!C9)</f>
+        <v>1.74602340865576E-3</v>
+      </c>
+      <c r="D44" s="2">
+        <f>ABS(imported!D9)</f>
+        <v>1.74602340865576E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="2">
+        <f>ABS(imported!C30)</f>
+        <v>1.74539750506454E-3</v>
+      </c>
+      <c r="D45" s="2">
+        <f>ABS(imported!D30)</f>
+        <v>1.74539750506454E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" s="2">
+        <f>ABS(imported!C14)</f>
+        <v>1.73122021316351E-3</v>
+      </c>
+      <c r="D46" s="2">
+        <f>ABS(imported!D14)</f>
+        <v>1.73122021316351E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="2">
+        <f>ABS(imported!C12)</f>
+        <v>1.68066715154692E-3</v>
+      </c>
+      <c r="D47" s="2">
+        <f>ABS(imported!D12)</f>
+        <v>1.68066715154692E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" s="2">
+        <f>ABS(imported!C11)</f>
+        <v>1.66415668991565E-3</v>
+      </c>
+      <c r="D48" s="2">
+        <f>ABS(imported!D11)</f>
+        <v>1.66415668991565E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="2">
+        <f>ABS(imported!C27)</f>
+        <v>1.5920239729999E-3</v>
+      </c>
+      <c r="D49" s="2">
+        <f>ABS(imported!D27)</f>
+        <v>1.5920239729999E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="2">
+        <f>ABS(imported!C15)</f>
+        <v>1.5756142279608799E-3</v>
+      </c>
+      <c r="D50" s="2">
+        <f>ABS(imported!D15)</f>
+        <v>1.5756142279608799E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" s="2">
+        <f>ABS(imported!C33)</f>
+        <v>1.5577994729130201E-3</v>
+      </c>
+      <c r="D51" s="2">
+        <f>ABS(imported!D33)</f>
+        <v>1.5577994729130201E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" s="2">
+        <f>ABS(imported!C22)</f>
+        <v>1.49598774389204E-3</v>
+      </c>
+      <c r="D52" s="2">
+        <f>ABS(imported!D22)</f>
+        <v>1.49598774389204E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" s="2">
+        <f>ABS(imported!C23)</f>
+        <v>1.4452751259944399E-3</v>
+      </c>
+      <c r="D53" s="2">
+        <f>ABS(imported!D23)</f>
+        <v>1.4452751259944399E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C54" s="2">
+        <f>ABS(imported!C35)</f>
+        <v>1.41214320108312E-3</v>
+      </c>
+      <c r="D54" s="2">
+        <f>ABS(imported!D35)</f>
+        <v>1.41214320108312E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D1">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D54">
+      <sortCondition descending="1" ref="C1:C54"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>